--- a/jpcore-r4/feature/kohe-obs-microbio-sliceTest/StructureDefinition-jp-diagnosticreport-microbiology.xlsx
+++ b/jpcore-r4/feature/kohe-obs-microbio-sliceTest/StructureDefinition-jp-diagnosticreport-microbiology.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="307">
   <si>
     <t>Property</t>
   </si>
@@ -483,7 +483,7 @@
     <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections</t>
   </si>
   <si>
-    <t xml:space="preserve">value:coding.system}
+    <t xml:space="preserve">value:$this}
 </t>
   </si>
   <si>
@@ -514,254 +514,16 @@
     <t>【JP Core仕様】レポートカテゴリーとして、LoincコードのLP7819-8 (微生物検査/MICRO)を使用する。</t>
   </si>
   <si>
-    <t>DiagnosticReport.category:microbiology.id</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category:microbiology.extension</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category.extension</t>
-  </si>
-  <si>
-    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category:microbiology.coding</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>用語システムによって定義されたコード / Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>用語システムによって定義されたコードへの参照。 / A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>コードは、列挙されたCTなどの非常に正式な定義まで、列挙またはコードリストで非常にさりげなく定義される場合があります。詳細については、HL7 V3コアプリンシップを参照してください。コーディングの順序付けは未定義であり、意味を推測するために使用されません。一般に、せいぜい、コーディング値の1つのみがuserselected = trueとしてラベル付けされます。 / Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>コードシステム内の代替エンコーディング、および他のコードシステムへの翻訳が可能になります。 / Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category:microbiology.coding.id</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category.coding.id</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category:microbiology.coding.extension</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category.coding.extension</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category:microbiology.coding.system</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category.coding.system</t>
-  </si>
-  <si>
-    <t>用語システムのアイデンティティ / Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>コード内のシンボルの意味を定義するコードシステムの識別。 / The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>uriは、oid（urn：oid：...）またはuuid（urn：uuid：...）である場合があります。OIDとUUIDは、HL7 OIDレジストリへの参照となります。それ以外の場合、URIは、FHIRの特別なURIを定義したHL7のリストから来るか、システムを明確かつ明確に確立する定義を参照する必要があります。 / The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>シンボルの定義のソースについて明確である必要があります。 / Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>http://loinc.org</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category:microbiology.coding.version</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category.coding.version</t>
-  </si>
-  <si>
-    <t>システムのバージョン - 関連する場合 / Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>このコードを選択するときに使用されたコードシステムのバージョン。コードの意味がバージョン全体で一貫しているため、適切にメンテナンスしたコードシステムでは報告されたバージョンを必要としないことに注意してください。ただし、これは一貫して保証することはできず、意味が一貫していることが保証されていない場合、バージョンを交換する必要があります。 / The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>用語がコードシステムバージョンを識別するために使用する文字列を明確に定義していない場合、推奨は、そのバージョンがバージョンの日付として公式に公開された日付（FHIR日付形式で表現）を使用することです。 / Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category:microbiology.coding.code</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category.coding.code</t>
-  </si>
-  <si>
-    <t>システムによって定義された構文のシンボル / Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>システムによって定義された構文のシンボル。シンボルは、定義されたコードまたはコーディングシステムによって定義された構文の式（例：調整後）である場合があります。 / A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>システム内の特定のコードを参照する必要があります。 / Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>LP7819-8</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category:microbiology.coding.display</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category.coding.display</t>
-  </si>
-  <si>
-    <t>システムによって定義された表現 / Representation defined by the system</t>
-  </si>
-  <si>
-    <t>システムのルールに従って、システム内のコードの意味の表現。 / A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>システムを知らない読者のために、コードの人間の読み取り可能な意味を持ち込むことができる必要があります。 / Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>微生物検査</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category:microbiology.coding.userSelected</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category.coding.userSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>このコーディングがユーザーによって直接選択された場合 / If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>このコーディングがユーザーによって直接選択されたことを示します。利用可能なアイテムのピックリスト（コードまたはディスプレイ）。 / Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>一連の代替案の中で、直接選択されたコードが新しい翻訳の最も適切な出発点です。この要素の使用とその結果をより完全に明確にするためには、「直接選択された」ことについては曖昧さがあり、取引パートナー契約が必要になる場合があります。 / Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>これは、臨床安全基準として特定されています - この正確なシステム/コードペアは、いくつかのルールまたは言語処理に基づいてシステムによって推測されるのではなく、明示的に選択されたことです。 / This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category:microbiology.text</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category.text</t>
-  </si>
-  <si>
-    <t>コンセプトの単純なテキスト表現 / Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>データを入力したユーザー、および/またはユーザーの意図された意味を表すユーザーによって見られる/選択/発言された概念の人間の言語表現。 / A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>多くの場合、テキストはコーディングの1つの表示名と同じです。 / Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>用語からのコードは、それらを使用する人間のすべてのニュアンスを使用して、常に正しい意味をキャプチャするとは限りません。または、適切なコードがまったくない場合があります。これらの場合、テキストはソースの完全な意味をキャプチャするために使用されます。 / The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://loinc.org"/&gt;
+    &lt;code value="LP7819-8"/&gt;
+    &lt;display value="微生物検査"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_DiagnosticReportCategory_VS</t>
   </si>
   <si>
     <t>DiagnosticReport.code</t>
@@ -1098,7 +860,29 @@
     <t>DiagnosticReport.media.id</t>
   </si>
   <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>DiagnosticReport.media.extension</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
   </si>
   <si>
     <t>DiagnosticReport.media.modifierExtension</t>
@@ -1519,7 +1303,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN44"/>
+  <dimension ref="A1:AN33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1528,8 +1312,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="57.28515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.8125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.37890625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.37890625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="62.22265625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
@@ -1551,10 +1335,10 @@
     <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="9.6640625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="73.33984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="53.546875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="61.515625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="21.17578125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="12.34765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
@@ -3099,7 +2883,7 @@
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>41</v>
+        <v>158</v>
       </c>
       <c r="S14" t="s" s="2">
         <v>41</v>
@@ -3117,13 +2901,11 @@
         <v>41</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>41</v>
@@ -3170,18 +2952,18 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>41</v>
+        <v>161</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>51</v>
@@ -3193,16 +2975,16 @@
         <v>41</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3214,7 +2996,7 @@
         <v>41</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>41</v>
+        <v>164</v>
       </c>
       <c r="T15" t="s" s="2">
         <v>41</v>
@@ -3229,13 +3011,13 @@
         <v>41</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>41</v>
+        <v>165</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>41</v>
+        <v>166</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>41</v>
@@ -3253,10 +3035,10 @@
         <v>41</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>51</v>
@@ -3265,38 +3047,38 @@
         <v>41</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>41</v>
+        <v>167</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>41</v>
+        <v>168</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>41</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>96</v>
+        <v>172</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>41</v>
@@ -3305,21 +3087,23 @@
         <v>41</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>97</v>
+        <v>173</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>98</v>
+        <v>174</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="O16" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="P16" t="s" s="2">
         <v>41</v>
       </c>
@@ -3355,62 +3139,62 @@
         <v>41</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>168</v>
+        <v>41</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>169</v>
+        <v>41</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>149</v>
+        <v>41</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>41</v>
+        <v>178</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>41</v>
+        <v>179</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>41</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>41</v>
+        <v>183</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>41</v>
@@ -3422,19 +3206,19 @@
         <v>52</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>41</v>
@@ -3483,13 +3267,13 @@
         <v>41</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>41</v>
@@ -3498,28 +3282,28 @@
         <v>63</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>41</v>
+        <v>189</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>41</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>41</v>
+        <v>194</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3535,19 +3319,23 @@
         <v>41</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>160</v>
+        <v>195</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="P18" t="s" s="2">
         <v>41</v>
       </c>
@@ -3595,7 +3383,7 @@
         <v>41</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
@@ -3607,38 +3395,38 @@
         <v>41</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>41</v>
+        <v>200</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>41</v>
+        <v>201</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>164</v>
+        <v>202</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>41</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>96</v>
+        <v>205</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>41</v>
@@ -3647,21 +3435,23 @@
         <v>41</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>97</v>
+        <v>206</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>98</v>
+        <v>207</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>167</v>
+        <v>208</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="O19" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>41</v>
       </c>
@@ -3697,62 +3487,62 @@
         <v>41</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>168</v>
+        <v>41</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>169</v>
+        <v>41</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>149</v>
+        <v>41</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>170</v>
+        <v>204</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>41</v>
+        <v>211</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>164</v>
+        <v>212</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>41</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>185</v>
+        <v>214</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>41</v>
+        <v>215</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>41</v>
@@ -3764,26 +3554,26 @@
         <v>52</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>65</v>
+        <v>216</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>191</v>
+        <v>41</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>41</v>
@@ -3825,13 +3615,13 @@
         <v>41</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>41</v>
@@ -3840,35 +3630,35 @@
         <v>63</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>41</v>
+        <v>221</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>41</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>41</v>
+        <v>226</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>41</v>
@@ -3880,18 +3670,20 @@
         <v>52</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>160</v>
+        <v>227</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>197</v>
+        <v>228</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>41</v>
       </c>
@@ -3939,13 +3731,13 @@
         <v>41</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>41</v>
@@ -3954,24 +3746,24 @@
         <v>63</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>41</v>
+        <v>221</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>41</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3982,7 +3774,7 @@
         <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>41</v>
@@ -3991,27 +3783,29 @@
         <v>41</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>71</v>
+        <v>233</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="O22" t="s" s="2">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>208</v>
+        <v>41</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>41</v>
@@ -4053,13 +3847,13 @@
         <v>41</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>41</v>
@@ -4071,10 +3865,10 @@
         <v>41</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>41</v>
@@ -4082,21 +3876,21 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>41</v>
+        <v>240</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>41</v>
@@ -4105,20 +3899,22 @@
         <v>41</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>160</v>
+        <v>241</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="O23" t="s" s="2">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>41</v>
@@ -4128,7 +3924,7 @@
         <v>41</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>217</v>
+        <v>41</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>41</v>
@@ -4167,13 +3963,13 @@
         <v>41</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>41</v>
@@ -4185,10 +3981,10 @@
         <v>41</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>41</v>
@@ -4196,10 +3992,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4210,7 +4006,7 @@
         <v>39</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>41</v>
@@ -4219,23 +4015,21 @@
         <v>41</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>41</v>
       </c>
@@ -4283,13 +4077,13 @@
         <v>41</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>41</v>
@@ -4301,10 +4095,10 @@
         <v>41</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>229</v>
+        <v>41</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>41</v>
@@ -4312,21 +4106,21 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>41</v>
+        <v>255</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>41</v>
@@ -4338,19 +4132,19 @@
         <v>52</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>160</v>
+        <v>256</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>41</v>
@@ -4399,13 +4193,13 @@
         <v>41</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>41</v>
@@ -4417,10 +4211,10 @@
         <v>41</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>41</v>
@@ -4428,18 +4222,18 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>241</v>
+        <v>41</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>51</v>
@@ -4451,16 +4245,16 @@
         <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>141</v>
+        <v>263</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4472,7 +4266,7 @@
         <v>41</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>244</v>
+        <v>41</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>41</v>
@@ -4487,13 +4281,13 @@
         <v>41</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>245</v>
+        <v>41</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>246</v>
+        <v>41</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>41</v>
@@ -4511,10 +4305,10 @@
         <v>41</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>51</v>
@@ -4523,38 +4317,38 @@
         <v>41</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>247</v>
+        <v>41</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>248</v>
+        <v>41</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>250</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>252</v>
+        <v>96</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>41</v>
@@ -4563,23 +4357,21 @@
         <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>253</v>
+        <v>97</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>254</v>
+        <v>98</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>257</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>41</v>
       </c>
@@ -4627,74 +4419,74 @@
         <v>41</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>258</v>
+        <v>41</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>259</v>
+        <v>41</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>261</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>52</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>264</v>
+        <v>97</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>267</v>
+        <v>100</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>268</v>
+        <v>106</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>41</v>
@@ -4743,43 +4535,43 @@
         <v>41</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>269</v>
+        <v>41</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>270</v>
+        <v>41</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>271</v>
+        <v>94</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>272</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>274</v>
+        <v>41</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4795,22 +4587,22 @@
         <v>41</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>41</v>
@@ -4859,7 +4651,7 @@
         <v>41</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
@@ -4874,32 +4666,32 @@
         <v>63</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>280</v>
+        <v>41</v>
       </c>
       <c r="AL29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="AM29" t="s" s="2">
-        <v>282</v>
-      </c>
       <c r="AN29" t="s" s="2">
-        <v>283</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>285</v>
+        <v>41</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>51</v>
@@ -4914,20 +4706,16 @@
         <v>52</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>41</v>
       </c>
@@ -4975,10 +4763,10 @@
         <v>41</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>51</v>
@@ -4993,32 +4781,32 @@
         <v>41</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>291</v>
+        <v>41</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>293</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>41</v>
@@ -5027,22 +4815,20 @@
         <v>41</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>296</v>
+        <v>263</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>41</v>
@@ -5091,13 +4877,13 @@
         <v>41</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>41</v>
@@ -5106,28 +4892,28 @@
         <v>63</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>301</v>
+        <v>41</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>304</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>306</v>
+        <v>41</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5143,23 +4929,21 @@
         <v>41</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>307</v>
+        <v>141</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>300</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>41</v>
       </c>
@@ -5183,13 +4967,13 @@
         <v>41</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>41</v>
+        <v>145</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>41</v>
+        <v>297</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>41</v>
+        <v>298</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>41</v>
@@ -5207,7 +4991,7 @@
         <v>41</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
@@ -5222,24 +5006,24 @@
         <v>63</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>301</v>
+        <v>41</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>304</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5262,19 +5046,19 @@
         <v>41</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>41</v>
@@ -5323,7 +5107,7 @@
         <v>41</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
@@ -5341,1272 +5125,12 @@
         <v>41</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>318</v>
+        <v>291</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>260</v>
+        <v>306</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="F34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="K34" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="P34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Q34" s="2"/>
-      <c r="R34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="O35" s="2"/>
-      <c r="P35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Q35" s="2"/>
-      <c r="R35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="K36" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="P36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Q36" s="2"/>
-      <c r="R36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G37" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Q37" s="2"/>
-      <c r="R37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="O38" s="2"/>
-      <c r="P38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Q38" s="2"/>
-      <c r="R38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="P39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Q39" s="2"/>
-      <c r="R39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="P40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Q40" s="2"/>
-      <c r="R40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G41" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J41" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Q41" s="2"/>
-      <c r="R41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G42" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="P42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Q42" s="2"/>
-      <c r="R42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="E43" s="2"/>
-      <c r="F43" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="O43" s="2"/>
-      <c r="P43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Q43" s="2"/>
-      <c r="R43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="E44" s="2"/>
-      <c r="F44" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="P44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Q44" s="2"/>
-      <c r="R44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="AN44" t="s" s="2">
         <v>41</v>
       </c>
     </row>

--- a/jpcore-r4/feature/kohe-obs-microbio-sliceTest/StructureDefinition-jp-diagnosticreport-microbiology.xlsx
+++ b/jpcore-r4/feature/kohe-obs-microbio-sliceTest/StructureDefinition-jp-diagnosticreport-microbiology.xlsx
@@ -483,7 +483,7 @@
     <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections</t>
   </si>
   <si>
-    <t xml:space="preserve">value:$this}
+    <t xml:space="preserve">pattern:$this}
 </t>
   </si>
   <si>
@@ -1337,7 +1337,7 @@
     <col min="25" max="25" width="73.33984375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="61.515625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="12.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="14.109375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>

--- a/jpcore-r4/feature/kohe-obs-microbio-sliceTest/StructureDefinition-jp-diagnosticreport-microbiology.xlsx
+++ b/jpcore-r4/feature/kohe-obs-microbio-sliceTest/StructureDefinition-jp-diagnosticreport-microbiology.xlsx
@@ -518,7 +518,6 @@
   &lt;coding&gt;
     &lt;system value="http://loinc.org"/&gt;
     &lt;code value="LP7819-8"/&gt;
-    &lt;display value="微生物検査"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -2883,10 +2882,10 @@
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S14" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="S14" t="s" s="2">
-        <v>41</v>
       </c>
       <c r="T14" t="s" s="2">
         <v>41</v>

--- a/jpcore-r4/feature/kohe-obs-microbio-sliceTest/StructureDefinition-jp-diagnosticreport-microbiology.xlsx
+++ b/jpcore-r4/feature/kohe-obs-microbio-sliceTest/StructureDefinition-jp-diagnosticreport-microbiology.xlsx
@@ -483,7 +483,7 @@
     <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:$this}
+    <t xml:space="preserve">value:$this}
 </t>
   </si>
   <si>
@@ -1336,7 +1336,7 @@
     <col min="25" max="25" width="73.33984375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="61.515625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="14.109375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="12.34765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
